--- a/input/industry/Country_Groups.xlsx
+++ b/input/industry/Country_Groups.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Example" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Example" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t xml:space="preserve">Combination Type</t>
   </si>
@@ -43,7 +44,7 @@
     <t xml:space="preserve">joined_diversified</t>
   </si>
   <si>
-    <t xml:space="preserve">seperate</t>
+    <t xml:space="preserve">separate</t>
   </si>
   <si>
     <t xml:space="preserve">all_others</t>
@@ -133,11 +134,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -158,61 +159,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -220,8 +183,81 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="17.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.11"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/input/industry/Country_Groups.xlsx
+++ b/input/industry/Country_Groups.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo_Version2\endemo2\input\industry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Master_Semester_1\IDP\endemo2\input\industry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90B99BA-54C4-4A35-A669-36445A561B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97E7E44-FCAD-4550-B069-F03D37E8539A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29085" yWindow="1170" windowWidth="21495" windowHeight="14655" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alu_prim" sheetId="2" r:id="rId1"/>
-    <sheet name="cement" sheetId="4" r:id="rId2"/>
-    <sheet name="default" sheetId="3" r:id="rId3"/>
+    <sheet name="steel" sheetId="5" r:id="rId2"/>
+    <sheet name="steel_direct" sheetId="7" r:id="rId3"/>
+    <sheet name="steel_prim" sheetId="8" r:id="rId4"/>
+    <sheet name="steel_sec" sheetId="9" r:id="rId5"/>
+    <sheet name="cement" sheetId="4" r:id="rId6"/>
+    <sheet name="paper" sheetId="6" r:id="rId7"/>
+    <sheet name="default" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="42">
   <si>
     <t>Combination Type</t>
   </si>
@@ -129,6 +134,30 @@
   </si>
   <si>
     <t>Romania</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>joined</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
   </si>
 </sst>
 </file>
@@ -175,7 +204,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -191,7 +220,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -487,19 +516,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -518,7 +547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -529,11 +558,81 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -548,16 +647,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5279010C-2A05-4048-9610-2B3A1E475EBD}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C09D95F-A6C0-4899-B550-6CAEE35AA23E}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +672,371 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C1BBA9-9F65-4F16-AED4-566178065BD5}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1AF4B4-9FDA-408D-A557-17A121816945}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D06686C-6687-44CD-A99E-6B11D7D49477}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5279010C-2A05-4048-9610-2B3A1E475EBD}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -597,7 +1068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -608,7 +1079,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -619,7 +1090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -642,7 +1113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -653,7 +1124,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -673,7 +1144,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -684,12 +1155,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -697,17 +1176,182 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803A0508-2B19-4615-A501-23C771F0FE73}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D60D655-00A8-4336-B5C6-9B5D59D81411}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
